--- a/Code/Results/Cases/Case_1_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.934046989780062</v>
+        <v>1.008157135860865</v>
       </c>
       <c r="D2">
-        <v>1.026813885980177</v>
+        <v>1.027871511328864</v>
       </c>
       <c r="E2">
-        <v>0.9488206008538416</v>
+        <v>1.010676782113318</v>
       </c>
       <c r="F2">
-        <v>0.9578314918161801</v>
+        <v>1.022788911153612</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043404219902611</v>
+        <v>1.029650528235211</v>
       </c>
       <c r="J2">
-        <v>0.9583966933381557</v>
+        <v>1.013424596645301</v>
       </c>
       <c r="K2">
-        <v>1.037911884519468</v>
+        <v>1.030689977327416</v>
       </c>
       <c r="L2">
-        <v>0.9610421976381514</v>
+        <v>1.013546252126332</v>
       </c>
       <c r="M2">
-        <v>0.9699113322997521</v>
+        <v>1.025622259157619</v>
       </c>
       <c r="N2">
-        <v>0.9886514562523845</v>
+        <v>1.008389760139752</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9434444390916491</v>
+        <v>1.009918853524015</v>
       </c>
       <c r="D3">
-        <v>1.02884939669292</v>
+        <v>1.028270653945178</v>
       </c>
       <c r="E3">
-        <v>0.9566643479150099</v>
+        <v>1.012198607220225</v>
       </c>
       <c r="F3">
-        <v>0.9668650286885911</v>
+        <v>1.024527811192356</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.044192436997592</v>
+        <v>1.029725471396968</v>
       </c>
       <c r="J3">
-        <v>0.9656053139638374</v>
+        <v>1.014813763486936</v>
       </c>
       <c r="K3">
-        <v>1.039125985708267</v>
+        <v>1.030898040735165</v>
       </c>
       <c r="L3">
-        <v>0.9678834824368469</v>
+        <v>1.014870194903636</v>
       </c>
       <c r="M3">
-        <v>0.9779401998834498</v>
+        <v>1.027165357312983</v>
       </c>
       <c r="N3">
-        <v>0.991260991548536</v>
+        <v>1.008873429238299</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9492907532384104</v>
+        <v>1.011055844668206</v>
       </c>
       <c r="D4">
-        <v>1.030135094101595</v>
+        <v>1.028528447434878</v>
       </c>
       <c r="E4">
-        <v>0.9615527382093408</v>
+        <v>1.01318088038086</v>
       </c>
       <c r="F4">
-        <v>0.972491100263263</v>
+        <v>1.025649382256573</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044672981006124</v>
+        <v>1.029772114980503</v>
       </c>
       <c r="J4">
-        <v>0.9700869960868848</v>
+        <v>1.015709535536505</v>
       </c>
       <c r="K4">
-        <v>1.039882926478467</v>
+        <v>1.031031454934845</v>
       </c>
       <c r="L4">
-        <v>0.9721384589260464</v>
+        <v>1.015723955875829</v>
       </c>
       <c r="M4">
-        <v>0.9829332775493144</v>
+        <v>1.028159807537883</v>
       </c>
       <c r="N4">
-        <v>0.9928807587840011</v>
+        <v>1.009184666724216</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9516965918793827</v>
+        <v>1.011533144618985</v>
       </c>
       <c r="D5">
-        <v>1.030668354038569</v>
+        <v>1.028636708204138</v>
       </c>
       <c r="E5">
-        <v>0.9635662640504178</v>
+        <v>1.013593255019767</v>
       </c>
       <c r="F5">
-        <v>0.9748074783769469</v>
+        <v>1.026120040820188</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044868197130465</v>
+        <v>1.029791281330322</v>
       </c>
       <c r="J5">
-        <v>0.9719304501090353</v>
+        <v>1.016085386410795</v>
       </c>
       <c r="K5">
-        <v>1.040194524497793</v>
+        <v>1.031087250560783</v>
       </c>
       <c r="L5">
-        <v>0.9738890312328028</v>
+        <v>1.016082190658627</v>
       </c>
       <c r="M5">
-        <v>0.9849872668499726</v>
+        <v>1.028576921609032</v>
       </c>
       <c r="N5">
-        <v>0.9935463292594716</v>
+        <v>1.00931510151637</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9520976088178846</v>
+        <v>1.011613245344475</v>
       </c>
       <c r="D6">
-        <v>1.030757473180007</v>
+        <v>1.028654878852546</v>
       </c>
       <c r="E6">
-        <v>0.9639019941266366</v>
+        <v>1.013662461322285</v>
       </c>
       <c r="F6">
-        <v>0.975193644270181</v>
+        <v>1.026199017062729</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044900582618885</v>
+        <v>1.029794473495223</v>
       </c>
       <c r="J6">
-        <v>0.9722376745763252</v>
+        <v>1.01614845090259</v>
       </c>
       <c r="K6">
-        <v>1.040246461545923</v>
+        <v>1.031096601773843</v>
       </c>
       <c r="L6">
-        <v>0.974180797185261</v>
+        <v>1.016142299965408</v>
       </c>
       <c r="M6">
-        <v>0.9853295847573743</v>
+        <v>1.028646901421496</v>
       </c>
       <c r="N6">
-        <v>0.9936572088777313</v>
+        <v>1.0093369782093</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9493230991445465</v>
+        <v>1.011062225065976</v>
       </c>
       <c r="D7">
-        <v>1.030142247681821</v>
+        <v>1.028529894476086</v>
       </c>
       <c r="E7">
-        <v>0.9615798023283001</v>
+        <v>1.013186392784138</v>
       </c>
       <c r="F7">
-        <v>0.972522239127651</v>
+        <v>1.025655674538123</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044675615915184</v>
+        <v>1.029772372821</v>
       </c>
       <c r="J7">
-        <v>0.9701117842691959</v>
+        <v>1.015714560531222</v>
       </c>
       <c r="K7">
-        <v>1.039887115776235</v>
+        <v>1.031032201625336</v>
       </c>
       <c r="L7">
-        <v>0.9721619967403283</v>
+        <v>1.01572874530643</v>
       </c>
       <c r="M7">
-        <v>0.9829608961958184</v>
+        <v>1.0281653847615</v>
       </c>
       <c r="N7">
-        <v>0.9928897112574621</v>
+        <v>1.009186411203062</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9372741272532296</v>
+        <v>1.008753139356514</v>
       </c>
       <c r="D8">
-        <v>1.02750847465786</v>
+        <v>1.028006501881878</v>
       </c>
       <c r="E8">
-        <v>0.9515122228310685</v>
+        <v>1.0111916053135</v>
       </c>
       <c r="F8">
-        <v>0.960932154146985</v>
+        <v>1.023377337950377</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043676869163833</v>
+        <v>1.029676238734683</v>
       </c>
       <c r="J8">
-        <v>0.9608727184231508</v>
+        <v>1.013894724427056</v>
       </c>
       <c r="K8">
-        <v>1.038328285298365</v>
+        <v>1.030760545020713</v>
       </c>
       <c r="L8">
-        <v>0.9633916738779649</v>
+        <v>1.013994296571734</v>
       </c>
       <c r="M8">
-        <v>0.9726686853721667</v>
+        <v>1.026144600721219</v>
       </c>
       <c r="N8">
-        <v>0.9895482962885465</v>
+        <v>1.008553579004346</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9140278243604453</v>
+        <v>1.004660812932933</v>
       </c>
       <c r="D9">
-        <v>1.022612819359638</v>
+        <v>1.027080598561885</v>
       </c>
       <c r="E9">
-        <v>0.9321711791916317</v>
+        <v>1.007657170216735</v>
       </c>
       <c r="F9">
-        <v>0.9386389983184715</v>
+        <v>1.019334257081912</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.041677915808737</v>
+        <v>1.029492662180238</v>
       </c>
       <c r="J9">
-        <v>0.9430298968277439</v>
+        <v>1.01066350910672</v>
       </c>
       <c r="K9">
-        <v>1.035349371694235</v>
+        <v>1.030272549766338</v>
       </c>
       <c r="L9">
-        <v>0.9464697517626596</v>
+        <v>1.010915065350717</v>
       </c>
       <c r="M9">
-        <v>0.9528127863796056</v>
+        <v>1.022552176623853</v>
       </c>
       <c r="N9">
-        <v>0.9830769345405609</v>
+        <v>1.007425007589222</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.8968076575431624</v>
+        <v>1.001915768734547</v>
       </c>
       <c r="D10">
-        <v>1.019154854373089</v>
+        <v>1.026460956289723</v>
       </c>
       <c r="E10">
-        <v>0.9179190238635869</v>
+        <v>1.005287009748382</v>
       </c>
       <c r="F10">
-        <v>0.9221999932189081</v>
+        <v>1.016618836919628</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040162546740762</v>
+        <v>1.029360730725203</v>
       </c>
       <c r="J10">
-        <v>0.9298113602826628</v>
+        <v>1.00849209672758</v>
       </c>
       <c r="K10">
-        <v>1.033186665300544</v>
+        <v>1.029940986572168</v>
       </c>
       <c r="L10">
-        <v>0.9339472604337196</v>
+        <v>1.008846054973964</v>
       </c>
       <c r="M10">
-        <v>0.9381319759384231</v>
+        <v>1.020135141993342</v>
       </c>
       <c r="N10">
-        <v>0.9782756296637614</v>
+        <v>1.006663308168524</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8888360826493891</v>
+        <v>1.000722901755992</v>
       </c>
       <c r="D11">
-        <v>1.017605019240959</v>
+        <v>1.026192093312458</v>
       </c>
       <c r="E11">
-        <v>0.9113444913457485</v>
+        <v>1.004257223544421</v>
       </c>
       <c r="F11">
-        <v>0.9146159278173657</v>
+        <v>1.015438061907195</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039456756570236</v>
+        <v>1.029301334300481</v>
       </c>
       <c r="J11">
-        <v>0.9236951159396728</v>
+        <v>1.007547566427437</v>
       </c>
       <c r="K11">
-        <v>1.032202396093552</v>
+        <v>1.029795941338655</v>
       </c>
       <c r="L11">
-        <v>0.9281572350236219</v>
+        <v>1.007946134561599</v>
       </c>
       <c r="M11">
-        <v>0.9313501493647598</v>
+        <v>1.019083104073592</v>
       </c>
       <c r="N11">
-        <v>0.9760538389390955</v>
+        <v>1.006331210227489</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8857861854149419</v>
+        <v>1.000279159213094</v>
       </c>
       <c r="D12">
-        <v>1.017020774239931</v>
+        <v>1.026092143331504</v>
       </c>
       <c r="E12">
-        <v>0.9088331124579583</v>
+        <v>1.003874174065741</v>
       </c>
       <c r="F12">
-        <v>0.9117190181443054</v>
+        <v>1.014998702464366</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039186468972475</v>
+        <v>1.029278930456391</v>
       </c>
       <c r="J12">
-        <v>0.9213558293528499</v>
+        <v>1.00719606425034</v>
       </c>
       <c r="K12">
-        <v>1.031828990079644</v>
+        <v>1.029741843520235</v>
       </c>
       <c r="L12">
-        <v>0.9259434336872684</v>
+        <v>1.007611244016314</v>
       </c>
       <c r="M12">
-        <v>0.928758374420112</v>
+        <v>1.018691495021204</v>
       </c>
       <c r="N12">
-        <v>0.9752041848459528</v>
+        <v>1.006207506627594</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8864446341453222</v>
+        <v>1.000374373637976</v>
       </c>
       <c r="D13">
-        <v>1.017146496798851</v>
+        <v>1.026113586651815</v>
       </c>
       <c r="E13">
-        <v>0.9093751085900998</v>
+        <v>1.003956364229714</v>
       </c>
       <c r="F13">
-        <v>0.9123442099587115</v>
+        <v>1.015092981570655</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039244826571357</v>
+        <v>1.029283751611878</v>
       </c>
       <c r="J13">
-        <v>0.9218608222425941</v>
+        <v>1.007271492863097</v>
       </c>
       <c r="K13">
-        <v>1.031909451496907</v>
+        <v>1.029753457708733</v>
       </c>
       <c r="L13">
-        <v>0.9264213035718584</v>
+        <v>1.007683107480435</v>
       </c>
       <c r="M13">
-        <v>0.9293177719777489</v>
+        <v>1.018775534570017</v>
       </c>
       <c r="N13">
-        <v>0.9753875958074105</v>
+        <v>1.0062340572907</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8885858663044802</v>
+        <v>1.000686235416834</v>
       </c>
       <c r="D14">
-        <v>1.017556904528657</v>
+        <v>1.026183833089653</v>
       </c>
       <c r="E14">
-        <v>0.9111383709286257</v>
+        <v>1.004225571688308</v>
       </c>
       <c r="F14">
-        <v>0.9143781618382958</v>
+        <v>1.015401760075497</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.039434584647263</v>
+        <v>1.029299489358153</v>
       </c>
       <c r="J14">
-        <v>0.9235031810943398</v>
+        <v>1.007518524739139</v>
       </c>
       <c r="K14">
-        <v>1.032171693499893</v>
+        <v>1.029791474114696</v>
       </c>
       <c r="L14">
-        <v>0.9279755809972172</v>
+        <v>1.007918465142307</v>
       </c>
       <c r="M14">
-        <v>0.9311374535710055</v>
+        <v>1.019050750687504</v>
       </c>
       <c r="N14">
-        <v>0.9759841228407297</v>
+        <v>1.006320991973331</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8898929830764282</v>
+        <v>1.000878295845924</v>
       </c>
       <c r="D15">
-        <v>1.017808612520583</v>
+        <v>1.026227103359276</v>
       </c>
       <c r="E15">
-        <v>0.9122152988559351</v>
+        <v>1.004391367098318</v>
       </c>
       <c r="F15">
-        <v>0.9156204351934309</v>
+        <v>1.015591906497331</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039550401728844</v>
+        <v>1.029309140655026</v>
       </c>
       <c r="J15">
-        <v>0.9245058716257837</v>
+        <v>1.007670641073145</v>
       </c>
       <c r="K15">
-        <v>1.032332214504051</v>
+        <v>1.02981486792433</v>
       </c>
       <c r="L15">
-        <v>0.9289245928582821</v>
+        <v>1.008063394144279</v>
       </c>
       <c r="M15">
-        <v>0.9322486885334463</v>
+        <v>1.019220209215397</v>
       </c>
       <c r="N15">
-        <v>0.9763483337178989</v>
+        <v>1.006374509068226</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8973249244226008</v>
+        <v>1.001994844176739</v>
       </c>
       <c r="D16">
-        <v>1.019256550479879</v>
+        <v>1.026478788249916</v>
       </c>
       <c r="E16">
-        <v>0.9183461544295216</v>
+        <v>1.005355278307506</v>
       </c>
       <c r="F16">
-        <v>0.9226927118636387</v>
+        <v>1.016697094541661</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040208288002395</v>
+        <v>1.029364624823003</v>
       </c>
       <c r="J16">
-        <v>0.9302083223278256</v>
+        <v>1.008554690221036</v>
       </c>
       <c r="K16">
-        <v>1.033250930449971</v>
+        <v>1.0299505816644</v>
       </c>
       <c r="L16">
-        <v>0.9343231423542547</v>
+        <v>1.008905693620014</v>
       </c>
       <c r="M16">
-        <v>0.9385723955114152</v>
+        <v>1.020204846087819</v>
       </c>
       <c r="N16">
-        <v>0.9784198377959874</v>
+        <v>1.0066852999693</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9018414839994316</v>
+        <v>1.002694074330195</v>
       </c>
       <c r="D17">
-        <v>1.020150304763488</v>
+        <v>1.026636515912732</v>
       </c>
       <c r="E17">
-        <v>0.9220783074277585</v>
+        <v>1.005958968073142</v>
       </c>
       <c r="F17">
-        <v>0.9269978943917623</v>
+        <v>1.017389003265614</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040607244199186</v>
+        <v>1.029398820732597</v>
       </c>
       <c r="J17">
-        <v>0.9336747850310726</v>
+        <v>1.009108069659708</v>
       </c>
       <c r="K17">
-        <v>1.033814015732681</v>
+        <v>1.030035316254035</v>
       </c>
       <c r="L17">
-        <v>0.9376059956723574</v>
+        <v>1.009432957420526</v>
       </c>
       <c r="M17">
-        <v>0.942419620198217</v>
+        <v>1.020821012719445</v>
       </c>
       <c r="N17">
-        <v>0.9796791234011978</v>
+        <v>1.006879637371936</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9044271067571725</v>
+        <v>1.003101515319602</v>
       </c>
       <c r="D18">
-        <v>1.020666601599128</v>
+        <v>1.026728462299616</v>
       </c>
       <c r="E18">
-        <v>0.9242169756541977</v>
+        <v>1.006310754388708</v>
       </c>
       <c r="F18">
-        <v>0.9294648474339415</v>
+        <v>1.017792102688247</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04083521211357</v>
+        <v>1.029418547711189</v>
       </c>
       <c r="J18">
-        <v>0.9356594962832252</v>
+        <v>1.009430433292483</v>
       </c>
       <c r="K18">
-        <v>1.034137889407883</v>
+        <v>1.030084598063527</v>
       </c>
       <c r="L18">
-        <v>0.939485960691153</v>
+        <v>1.009740114137254</v>
       </c>
       <c r="M18">
-        <v>0.9446233260011019</v>
+        <v>1.021179888002338</v>
       </c>
       <c r="N18">
-        <v>0.980400092395739</v>
+        <v>1.006992771765012</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9053007691223328</v>
+        <v>1.003240373570889</v>
       </c>
       <c r="D19">
-        <v>1.020841813407544</v>
+        <v>1.026759804540506</v>
       </c>
       <c r="E19">
-        <v>0.9249399573068539</v>
+        <v>1.006430647986057</v>
       </c>
       <c r="F19">
-        <v>0.9302987869124903</v>
+        <v>1.017929468454114</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040912158109864</v>
+        <v>1.029425236981855</v>
       </c>
       <c r="J19">
-        <v>0.9363301478607748</v>
+        <v>1.00954028136194</v>
       </c>
       <c r="K19">
-        <v>1.034247564731215</v>
+        <v>1.030101377718957</v>
       </c>
       <c r="L19">
-        <v>0.9401212794293189</v>
+        <v>1.009844781400352</v>
       </c>
       <c r="M19">
-        <v>0.945368134655091</v>
+        <v>1.021302166785929</v>
       </c>
       <c r="N19">
-        <v>0.9806437050455694</v>
+        <v>1.007031310634166</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9013620239518679</v>
+        <v>1.002619095917672</v>
       </c>
       <c r="D20">
-        <v>1.020054936593802</v>
+        <v>1.026619598753507</v>
       </c>
       <c r="E20">
-        <v>0.9216818946512582</v>
+        <v>1.005894232717987</v>
       </c>
       <c r="F20">
-        <v>0.9265406242953497</v>
+        <v>1.017314817712391</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040564934307034</v>
+        <v>1.029395174481913</v>
       </c>
       <c r="J20">
-        <v>0.9333067715607857</v>
+        <v>1.009048740143659</v>
       </c>
       <c r="K20">
-        <v>1.033754078245567</v>
+        <v>1.030026239766467</v>
       </c>
       <c r="L20">
-        <v>0.9372574348715206</v>
+        <v>1.009376427179067</v>
       </c>
       <c r="M20">
-        <v>0.942011077605857</v>
+        <v>1.020754958224393</v>
       </c>
       <c r="N20">
-        <v>0.9795454348525603</v>
+        <v>1.006858809533651</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8879578859652574</v>
+        <v>1.000594418246691</v>
       </c>
       <c r="D21">
-        <v>1.017436292286859</v>
+        <v>1.026163149529359</v>
       </c>
       <c r="E21">
-        <v>0.9106211267302918</v>
+        <v>1.00414631187052</v>
       </c>
       <c r="F21">
-        <v>0.9137815077246788</v>
+        <v>1.01531085382801</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.0393789360121</v>
+        <v>1.029294864411176</v>
       </c>
       <c r="J21">
-        <v>0.9230214862700837</v>
+        <v>1.00744579840387</v>
       </c>
       <c r="K21">
-        <v>1.032094690846097</v>
+        <v>1.029780285345185</v>
       </c>
       <c r="L21">
-        <v>0.9275196995485567</v>
+        <v>1.007849175416741</v>
       </c>
       <c r="M21">
-        <v>0.9306036903172581</v>
+        <v>1.018969729598302</v>
       </c>
       <c r="N21">
-        <v>0.975809160240321</v>
+        <v>1.006295401517418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8790081142637205</v>
+        <v>0.9993176018299114</v>
       </c>
       <c r="D22">
-        <v>1.015739838537783</v>
+        <v>1.02587568604674</v>
       </c>
       <c r="E22">
-        <v>0.9032599929561465</v>
+        <v>1.003044186075239</v>
       </c>
       <c r="F22">
-        <v>0.9052907955057931</v>
+        <v>1.014046434902394</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038585796662975</v>
+        <v>1.029229820209068</v>
       </c>
       <c r="J22">
-        <v>0.916158870534976</v>
+        <v>1.006434129414482</v>
       </c>
       <c r="K22">
-        <v>1.031005804512558</v>
+        <v>1.029624362248677</v>
       </c>
       <c r="L22">
-        <v>0.9210266986896417</v>
+        <v>1.006885336572081</v>
       </c>
       <c r="M22">
-        <v>0.9230048819813702</v>
+        <v>1.01784244390925</v>
       </c>
       <c r="N22">
-        <v>0.9733169979453831</v>
+        <v>1.005939150413415</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8838065908692437</v>
+        <v>0.9999948356264771</v>
       </c>
       <c r="D23">
-        <v>1.016644164143636</v>
+        <v>1.026028120679429</v>
       </c>
       <c r="E23">
-        <v>0.9072042640162696</v>
+        <v>1.003628746888766</v>
       </c>
       <c r="F23">
-        <v>0.9098401760556257</v>
+        <v>1.01471715519643</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039011015521152</v>
+        <v>1.029264488757242</v>
       </c>
       <c r="J23">
-        <v>0.9198377344844263</v>
+        <v>1.006970803409187</v>
       </c>
       <c r="K23">
-        <v>1.031587605730949</v>
+        <v>1.029707141463984</v>
       </c>
       <c r="L23">
-        <v>0.924506988265278</v>
+        <v>1.007396631702296</v>
       </c>
       <c r="M23">
-        <v>0.9270770715153287</v>
+        <v>1.018440504087804</v>
       </c>
       <c r="N23">
-        <v>0.9746528501476797</v>
+        <v>1.006128198647115</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9015788213014005</v>
+        <v>1.002652976695525</v>
       </c>
       <c r="D24">
-        <v>1.020098044813019</v>
+        <v>1.026627243055171</v>
       </c>
       <c r="E24">
-        <v>0.9218611340335576</v>
+        <v>1.005923484875529</v>
       </c>
       <c r="F24">
-        <v>0.9267473807955915</v>
+        <v>1.017348340451128</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040584066914039</v>
+        <v>1.029396822742176</v>
       </c>
       <c r="J24">
-        <v>0.9334731753987967</v>
+        <v>1.009075549874698</v>
       </c>
       <c r="K24">
-        <v>1.033781175476007</v>
+        <v>1.030030341480836</v>
       </c>
       <c r="L24">
-        <v>0.9374150416661161</v>
+        <v>1.00940197195844</v>
       </c>
       <c r="M24">
-        <v>0.9421958043527194</v>
+        <v>1.020784807027202</v>
       </c>
       <c r="N24">
-        <v>0.9796058846144563</v>
+        <v>1.006868221414884</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9203103189228047</v>
+        <v>1.005721663359451</v>
       </c>
       <c r="D25">
-        <v>1.023910793379409</v>
+        <v>1.027320389354417</v>
       </c>
       <c r="E25">
-        <v>0.9373871159656714</v>
+        <v>1.008573288179382</v>
       </c>
       <c r="F25">
-        <v>0.9446535504371463</v>
+        <v>1.020382949875047</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.04222506773533</v>
+        <v>1.02954180262168</v>
       </c>
       <c r="J25">
-        <v>0.9478531116863828</v>
+        <v>1.011501837092792</v>
       </c>
       <c r="K25">
-        <v>1.036148927492987</v>
+        <v>1.030399808295262</v>
       </c>
       <c r="L25">
-        <v>0.951041960219449</v>
+        <v>1.011713915783775</v>
       </c>
       <c r="M25">
-        <v>0.9581764466804771</v>
+        <v>1.023484732094045</v>
       </c>
       <c r="N25">
-        <v>0.984827859967302</v>
+        <v>1.007718391891647</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.008157135860865</v>
+        <v>0.9340469897800614</v>
       </c>
       <c r="D2">
-        <v>1.027871511328864</v>
+        <v>1.026813885980177</v>
       </c>
       <c r="E2">
-        <v>1.010676782113318</v>
+        <v>0.948820600853841</v>
       </c>
       <c r="F2">
-        <v>1.022788911153612</v>
+        <v>0.9578314918161801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.029650528235211</v>
+        <v>1.043404219902611</v>
       </c>
       <c r="J2">
-        <v>1.013424596645301</v>
+        <v>0.9583966933381552</v>
       </c>
       <c r="K2">
-        <v>1.030689977327416</v>
+        <v>1.037911884519468</v>
       </c>
       <c r="L2">
-        <v>1.013546252126332</v>
+        <v>0.9610421976381508</v>
       </c>
       <c r="M2">
-        <v>1.025622259157619</v>
+        <v>0.9699113322997519</v>
       </c>
       <c r="N2">
-        <v>1.008389760139752</v>
+        <v>0.9886514562523845</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.009918853524015</v>
+        <v>0.9434444390916475</v>
       </c>
       <c r="D3">
-        <v>1.028270653945178</v>
+        <v>1.02884939669292</v>
       </c>
       <c r="E3">
-        <v>1.012198607220225</v>
+        <v>0.9566643479150082</v>
       </c>
       <c r="F3">
-        <v>1.024527811192356</v>
+        <v>0.9668650286885905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029725471396968</v>
+        <v>1.044192436997593</v>
       </c>
       <c r="J3">
-        <v>1.014813763486936</v>
+        <v>0.9656053139638358</v>
       </c>
       <c r="K3">
-        <v>1.030898040735165</v>
+        <v>1.039125985708267</v>
       </c>
       <c r="L3">
-        <v>1.014870194903636</v>
+        <v>0.9678834824368452</v>
       </c>
       <c r="M3">
-        <v>1.027165357312983</v>
+        <v>0.977940199883449</v>
       </c>
       <c r="N3">
-        <v>1.008873429238299</v>
+        <v>0.9912609915485353</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.011055844668206</v>
+        <v>0.9492907532384089</v>
       </c>
       <c r="D4">
-        <v>1.028528447434878</v>
+        <v>1.030135094101594</v>
       </c>
       <c r="E4">
-        <v>1.01318088038086</v>
+        <v>0.9615527382093397</v>
       </c>
       <c r="F4">
-        <v>1.025649382256573</v>
+        <v>0.9724911002632621</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029772114980503</v>
+        <v>1.044672981006123</v>
       </c>
       <c r="J4">
-        <v>1.015709535536505</v>
+        <v>0.9700869960868835</v>
       </c>
       <c r="K4">
-        <v>1.031031454934845</v>
+        <v>1.039882926478467</v>
       </c>
       <c r="L4">
-        <v>1.015723955875829</v>
+        <v>0.9721384589260451</v>
       </c>
       <c r="M4">
-        <v>1.028159807537883</v>
+        <v>0.9829332775493136</v>
       </c>
       <c r="N4">
-        <v>1.009184666724216</v>
+        <v>0.9928807587840007</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011533144618985</v>
+        <v>0.9516965918793807</v>
       </c>
       <c r="D5">
-        <v>1.028636708204138</v>
+        <v>1.03066835403857</v>
       </c>
       <c r="E5">
-        <v>1.013593255019767</v>
+        <v>0.9635662640504155</v>
       </c>
       <c r="F5">
-        <v>1.026120040820188</v>
+        <v>0.9748074783769454</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029791281330322</v>
+        <v>1.044868197130465</v>
       </c>
       <c r="J5">
-        <v>1.016085386410795</v>
+        <v>0.971930450109033</v>
       </c>
       <c r="K5">
-        <v>1.031087250560783</v>
+        <v>1.040194524497794</v>
       </c>
       <c r="L5">
-        <v>1.016082190658627</v>
+        <v>0.9738890312328004</v>
       </c>
       <c r="M5">
-        <v>1.028576921609032</v>
+        <v>0.9849872668499712</v>
       </c>
       <c r="N5">
-        <v>1.00931510151637</v>
+        <v>0.9935463292594711</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011613245344475</v>
+        <v>0.9520976088178846</v>
       </c>
       <c r="D6">
-        <v>1.028654878852546</v>
+        <v>1.030757473180007</v>
       </c>
       <c r="E6">
-        <v>1.013662461322285</v>
+        <v>0.9639019941266368</v>
       </c>
       <c r="F6">
-        <v>1.026199017062729</v>
+        <v>0.9751936442701807</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029794473495223</v>
+        <v>1.044900582618886</v>
       </c>
       <c r="J6">
-        <v>1.01614845090259</v>
+        <v>0.9722376745763252</v>
       </c>
       <c r="K6">
-        <v>1.031096601773843</v>
+        <v>1.040246461545923</v>
       </c>
       <c r="L6">
-        <v>1.016142299965408</v>
+        <v>0.9741807971852611</v>
       </c>
       <c r="M6">
-        <v>1.028646901421496</v>
+        <v>0.9853295847573742</v>
       </c>
       <c r="N6">
-        <v>1.0093369782093</v>
+        <v>0.9936572088777315</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.011062225065976</v>
+        <v>0.9493230991445466</v>
       </c>
       <c r="D7">
-        <v>1.028529894476086</v>
+        <v>1.03014224768182</v>
       </c>
       <c r="E7">
-        <v>1.013186392784138</v>
+        <v>0.9615798023283</v>
       </c>
       <c r="F7">
-        <v>1.025655674538123</v>
+        <v>0.9725222391276511</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029772372821</v>
+        <v>1.044675615915184</v>
       </c>
       <c r="J7">
-        <v>1.015714560531222</v>
+        <v>0.9701117842691961</v>
       </c>
       <c r="K7">
-        <v>1.031032201625336</v>
+        <v>1.039887115776235</v>
       </c>
       <c r="L7">
-        <v>1.01572874530643</v>
+        <v>0.9721619967403283</v>
       </c>
       <c r="M7">
-        <v>1.0281653847615</v>
+        <v>0.9829608961958184</v>
       </c>
       <c r="N7">
-        <v>1.009186411203062</v>
+        <v>0.9928897112574623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.008753139356514</v>
+        <v>0.9372741272532287</v>
       </c>
       <c r="D8">
-        <v>1.028006501881878</v>
+        <v>1.02750847465786</v>
       </c>
       <c r="E8">
-        <v>1.0111916053135</v>
+        <v>0.9515122228310677</v>
       </c>
       <c r="F8">
-        <v>1.023377337950377</v>
+        <v>0.9609321541469841</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.029676238734683</v>
+        <v>1.043676869163833</v>
       </c>
       <c r="J8">
-        <v>1.013894724427056</v>
+        <v>0.9608727184231498</v>
       </c>
       <c r="K8">
-        <v>1.030760545020713</v>
+        <v>1.038328285298365</v>
       </c>
       <c r="L8">
-        <v>1.013994296571734</v>
+        <v>0.9633916738779637</v>
       </c>
       <c r="M8">
-        <v>1.026144600721219</v>
+        <v>0.9726686853721658</v>
       </c>
       <c r="N8">
-        <v>1.008553579004346</v>
+        <v>0.9895482962885459</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.004660812932933</v>
+        <v>0.9140278243604458</v>
       </c>
       <c r="D9">
-        <v>1.027080598561885</v>
+        <v>1.022612819359638</v>
       </c>
       <c r="E9">
-        <v>1.007657170216735</v>
+        <v>0.9321711791916323</v>
       </c>
       <c r="F9">
-        <v>1.019334257081912</v>
+        <v>0.9386389983184725</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029492662180238</v>
+        <v>1.041677915808737</v>
       </c>
       <c r="J9">
-        <v>1.01066350910672</v>
+        <v>0.9430298968277444</v>
       </c>
       <c r="K9">
-        <v>1.030272549766338</v>
+        <v>1.035349371694235</v>
       </c>
       <c r="L9">
-        <v>1.010915065350717</v>
+        <v>0.9464697517626601</v>
       </c>
       <c r="M9">
-        <v>1.022552176623853</v>
+        <v>0.9528127863796064</v>
       </c>
       <c r="N9">
-        <v>1.007425007589222</v>
+        <v>0.9830769345405612</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.001915768734547</v>
+        <v>0.8968076575431623</v>
       </c>
       <c r="D10">
-        <v>1.026460956289723</v>
+        <v>1.019154854373089</v>
       </c>
       <c r="E10">
-        <v>1.005287009748382</v>
+        <v>0.9179190238635867</v>
       </c>
       <c r="F10">
-        <v>1.016618836919628</v>
+        <v>0.9221999932189081</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029360730725203</v>
+        <v>1.040162546740762</v>
       </c>
       <c r="J10">
-        <v>1.00849209672758</v>
+        <v>0.9298113602826628</v>
       </c>
       <c r="K10">
-        <v>1.029940986572168</v>
+        <v>1.033186665300544</v>
       </c>
       <c r="L10">
-        <v>1.008846054973964</v>
+        <v>0.9339472604337193</v>
       </c>
       <c r="M10">
-        <v>1.020135141993342</v>
+        <v>0.9381319759384232</v>
       </c>
       <c r="N10">
-        <v>1.006663308168524</v>
+        <v>0.9782756296637614</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000722901755992</v>
+        <v>0.8888360826493891</v>
       </c>
       <c r="D11">
-        <v>1.026192093312458</v>
+        <v>1.017605019240959</v>
       </c>
       <c r="E11">
-        <v>1.004257223544421</v>
+        <v>0.9113444913457481</v>
       </c>
       <c r="F11">
-        <v>1.015438061907195</v>
+        <v>0.9146159278173654</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029301334300481</v>
+        <v>1.039456756570236</v>
       </c>
       <c r="J11">
-        <v>1.007547566427437</v>
+        <v>0.9236951159396728</v>
       </c>
       <c r="K11">
-        <v>1.029795941338655</v>
+        <v>1.032202396093552</v>
       </c>
       <c r="L11">
-        <v>1.007946134561599</v>
+        <v>0.9281572350236217</v>
       </c>
       <c r="M11">
-        <v>1.019083104073592</v>
+        <v>0.9313501493647596</v>
       </c>
       <c r="N11">
-        <v>1.006331210227489</v>
+        <v>0.9760538389390956</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.000279159213094</v>
+        <v>0.8857861854149417</v>
       </c>
       <c r="D12">
-        <v>1.026092143331504</v>
+        <v>1.017020774239931</v>
       </c>
       <c r="E12">
-        <v>1.003874174065741</v>
+        <v>0.9088331124579582</v>
       </c>
       <c r="F12">
-        <v>1.014998702464366</v>
+        <v>0.9117190181443048</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029278930456391</v>
+        <v>1.039186468972475</v>
       </c>
       <c r="J12">
-        <v>1.00719606425034</v>
+        <v>0.9213558293528497</v>
       </c>
       <c r="K12">
-        <v>1.029741843520235</v>
+        <v>1.031828990079644</v>
       </c>
       <c r="L12">
-        <v>1.007611244016314</v>
+        <v>0.9259434336872682</v>
       </c>
       <c r="M12">
-        <v>1.018691495021204</v>
+        <v>0.9287583744201116</v>
       </c>
       <c r="N12">
-        <v>1.006207506627594</v>
+        <v>0.9752041848459527</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.000374373637976</v>
+        <v>0.8864446341453217</v>
       </c>
       <c r="D13">
-        <v>1.026113586651815</v>
+        <v>1.01714649679885</v>
       </c>
       <c r="E13">
-        <v>1.003956364229714</v>
+        <v>0.9093751085900995</v>
       </c>
       <c r="F13">
-        <v>1.015092981570655</v>
+        <v>0.9123442099587112</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029283751611878</v>
+        <v>1.039244826571357</v>
       </c>
       <c r="J13">
-        <v>1.007271492863097</v>
+        <v>0.9218608222425936</v>
       </c>
       <c r="K13">
-        <v>1.029753457708733</v>
+        <v>1.031909451496907</v>
       </c>
       <c r="L13">
-        <v>1.007683107480435</v>
+        <v>0.926421303571858</v>
       </c>
       <c r="M13">
-        <v>1.018775534570017</v>
+        <v>0.9293177719777487</v>
       </c>
       <c r="N13">
-        <v>1.0062340572907</v>
+        <v>0.9753875958074103</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000686235416834</v>
+        <v>0.8885858663044797</v>
       </c>
       <c r="D14">
-        <v>1.026183833089653</v>
+        <v>1.017556904528657</v>
       </c>
       <c r="E14">
-        <v>1.004225571688308</v>
+        <v>0.9111383709286254</v>
       </c>
       <c r="F14">
-        <v>1.015401760075497</v>
+        <v>0.9143781618382957</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029299489358153</v>
+        <v>1.039434584647263</v>
       </c>
       <c r="J14">
-        <v>1.007518524739139</v>
+        <v>0.9235031810943395</v>
       </c>
       <c r="K14">
-        <v>1.029791474114696</v>
+        <v>1.032171693499893</v>
       </c>
       <c r="L14">
-        <v>1.007918465142307</v>
+        <v>0.9279755809972168</v>
       </c>
       <c r="M14">
-        <v>1.019050750687504</v>
+        <v>0.9311374535710054</v>
       </c>
       <c r="N14">
-        <v>1.006320991973331</v>
+        <v>0.9759841228407294</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000878295845924</v>
+        <v>0.8898929830764271</v>
       </c>
       <c r="D15">
-        <v>1.026227103359276</v>
+        <v>1.017808612520584</v>
       </c>
       <c r="E15">
-        <v>1.004391367098318</v>
+        <v>0.9122152988559341</v>
       </c>
       <c r="F15">
-        <v>1.015591906497331</v>
+        <v>0.9156204351934302</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029309140655026</v>
+        <v>1.039550401728845</v>
       </c>
       <c r="J15">
-        <v>1.007670641073145</v>
+        <v>0.9245058716257826</v>
       </c>
       <c r="K15">
-        <v>1.02981486792433</v>
+        <v>1.032332214504051</v>
       </c>
       <c r="L15">
-        <v>1.008063394144279</v>
+        <v>0.9289245928582812</v>
       </c>
       <c r="M15">
-        <v>1.019220209215397</v>
+        <v>0.9322486885334457</v>
       </c>
       <c r="N15">
-        <v>1.006374509068226</v>
+        <v>0.9763483337178985</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.001994844176739</v>
+        <v>0.8973249244225984</v>
       </c>
       <c r="D16">
-        <v>1.026478788249916</v>
+        <v>1.019256550479879</v>
       </c>
       <c r="E16">
-        <v>1.005355278307506</v>
+        <v>0.9183461544295192</v>
       </c>
       <c r="F16">
-        <v>1.016697094541661</v>
+        <v>0.9226927118636365</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029364624823003</v>
+        <v>1.040208288002394</v>
       </c>
       <c r="J16">
-        <v>1.008554690221036</v>
+        <v>0.9302083223278232</v>
       </c>
       <c r="K16">
-        <v>1.0299505816644</v>
+        <v>1.033250930449971</v>
       </c>
       <c r="L16">
-        <v>1.008905693620014</v>
+        <v>0.9343231423542524</v>
       </c>
       <c r="M16">
-        <v>1.020204846087819</v>
+        <v>0.938572395511413</v>
       </c>
       <c r="N16">
-        <v>1.0066852999693</v>
+        <v>0.9784198377959865</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002694074330195</v>
+        <v>0.9018414839994316</v>
       </c>
       <c r="D17">
-        <v>1.026636515912732</v>
+        <v>1.020150304763489</v>
       </c>
       <c r="E17">
-        <v>1.005958968073142</v>
+        <v>0.922078307427758</v>
       </c>
       <c r="F17">
-        <v>1.017389003265614</v>
+        <v>0.9269978943917623</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029398820732597</v>
+        <v>1.040607244199186</v>
       </c>
       <c r="J17">
-        <v>1.009108069659708</v>
+        <v>0.9336747850310724</v>
       </c>
       <c r="K17">
-        <v>1.030035316254035</v>
+        <v>1.033814015732681</v>
       </c>
       <c r="L17">
-        <v>1.009432957420526</v>
+        <v>0.9376059956723567</v>
       </c>
       <c r="M17">
-        <v>1.020821012719445</v>
+        <v>0.9424196201982169</v>
       </c>
       <c r="N17">
-        <v>1.006879637371936</v>
+        <v>0.9796791234011979</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.003101515319602</v>
+        <v>0.9044271067571736</v>
       </c>
       <c r="D18">
-        <v>1.026728462299616</v>
+        <v>1.020666601599128</v>
       </c>
       <c r="E18">
-        <v>1.006310754388708</v>
+        <v>0.9242169756541987</v>
       </c>
       <c r="F18">
-        <v>1.017792102688247</v>
+        <v>0.9294648474339421</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029418547711189</v>
+        <v>1.04083521211357</v>
       </c>
       <c r="J18">
-        <v>1.009430433292483</v>
+        <v>0.9356594962832262</v>
       </c>
       <c r="K18">
-        <v>1.030084598063527</v>
+        <v>1.034137889407883</v>
       </c>
       <c r="L18">
-        <v>1.009740114137254</v>
+        <v>0.939485960691154</v>
       </c>
       <c r="M18">
-        <v>1.021179888002338</v>
+        <v>0.9446233260011024</v>
       </c>
       <c r="N18">
-        <v>1.006992771765012</v>
+        <v>0.9804000923957392</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.003240373570889</v>
+        <v>0.9053007691223324</v>
       </c>
       <c r="D19">
-        <v>1.026759804540506</v>
+        <v>1.020841813407544</v>
       </c>
       <c r="E19">
-        <v>1.006430647986057</v>
+        <v>0.924939957306853</v>
       </c>
       <c r="F19">
-        <v>1.017929468454114</v>
+        <v>0.9302987869124896</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029425236981855</v>
+        <v>1.040912158109864</v>
       </c>
       <c r="J19">
-        <v>1.00954028136194</v>
+        <v>0.9363301478607743</v>
       </c>
       <c r="K19">
-        <v>1.030101377718957</v>
+        <v>1.034247564731215</v>
       </c>
       <c r="L19">
-        <v>1.009844781400352</v>
+        <v>0.9401212794293181</v>
       </c>
       <c r="M19">
-        <v>1.021302166785929</v>
+        <v>0.9453681346550903</v>
       </c>
       <c r="N19">
-        <v>1.007031310634166</v>
+        <v>0.9806437050455693</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.002619095917672</v>
+        <v>0.9013620239518685</v>
       </c>
       <c r="D20">
-        <v>1.026619598753507</v>
+        <v>1.020054936593802</v>
       </c>
       <c r="E20">
-        <v>1.005894232717987</v>
+        <v>0.9216818946512583</v>
       </c>
       <c r="F20">
-        <v>1.017314817712391</v>
+        <v>0.92654062429535</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029395174481913</v>
+        <v>1.040564934307034</v>
       </c>
       <c r="J20">
-        <v>1.009048740143659</v>
+        <v>0.933306771560786</v>
       </c>
       <c r="K20">
-        <v>1.030026239766467</v>
+        <v>1.033754078245567</v>
       </c>
       <c r="L20">
-        <v>1.009376427179067</v>
+        <v>0.9372574348715207</v>
       </c>
       <c r="M20">
-        <v>1.020754958224393</v>
+        <v>0.9420110776058573</v>
       </c>
       <c r="N20">
-        <v>1.006858809533651</v>
+        <v>0.9795454348525605</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000594418246691</v>
+        <v>0.8879578859652574</v>
       </c>
       <c r="D21">
-        <v>1.026163149529359</v>
+        <v>1.017436292286859</v>
       </c>
       <c r="E21">
-        <v>1.00414631187052</v>
+        <v>0.9106211267302919</v>
       </c>
       <c r="F21">
-        <v>1.01531085382801</v>
+        <v>0.9137815077246789</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029294864411176</v>
+        <v>1.0393789360121</v>
       </c>
       <c r="J21">
-        <v>1.00744579840387</v>
+        <v>0.9230214862700838</v>
       </c>
       <c r="K21">
-        <v>1.029780285345185</v>
+        <v>1.032094690846097</v>
       </c>
       <c r="L21">
-        <v>1.007849175416741</v>
+        <v>0.9275196995485567</v>
       </c>
       <c r="M21">
-        <v>1.018969729598302</v>
+        <v>0.9306036903172583</v>
       </c>
       <c r="N21">
-        <v>1.006295401517418</v>
+        <v>0.975809160240321</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9993176018299114</v>
+        <v>0.8790081142637205</v>
       </c>
       <c r="D22">
-        <v>1.02587568604674</v>
+        <v>1.015739838537783</v>
       </c>
       <c r="E22">
-        <v>1.003044186075239</v>
+        <v>0.9032599929561466</v>
       </c>
       <c r="F22">
-        <v>1.014046434902394</v>
+        <v>0.9052907955057932</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029229820209068</v>
+        <v>1.038585796662975</v>
       </c>
       <c r="J22">
-        <v>1.006434129414482</v>
+        <v>0.9161588705349761</v>
       </c>
       <c r="K22">
-        <v>1.029624362248677</v>
+        <v>1.031005804512558</v>
       </c>
       <c r="L22">
-        <v>1.006885336572081</v>
+        <v>0.9210266986896418</v>
       </c>
       <c r="M22">
-        <v>1.01784244390925</v>
+        <v>0.9230048819813703</v>
       </c>
       <c r="N22">
-        <v>1.005939150413415</v>
+        <v>0.9733169979453831</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9999948356264771</v>
+        <v>0.8838065908692442</v>
       </c>
       <c r="D23">
-        <v>1.026028120679429</v>
+        <v>1.016644164143637</v>
       </c>
       <c r="E23">
-        <v>1.003628746888766</v>
+        <v>0.9072042640162701</v>
       </c>
       <c r="F23">
-        <v>1.01471715519643</v>
+        <v>0.9098401760556257</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029264488757242</v>
+        <v>1.039011015521152</v>
       </c>
       <c r="J23">
-        <v>1.006970803409187</v>
+        <v>0.9198377344844267</v>
       </c>
       <c r="K23">
-        <v>1.029707141463984</v>
+        <v>1.031587605730949</v>
       </c>
       <c r="L23">
-        <v>1.007396631702296</v>
+        <v>0.9245069882652786</v>
       </c>
       <c r="M23">
-        <v>1.018440504087804</v>
+        <v>0.9270770715153289</v>
       </c>
       <c r="N23">
-        <v>1.006128198647115</v>
+        <v>0.9746528501476798</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.002652976695525</v>
+        <v>0.9015788213014003</v>
       </c>
       <c r="D24">
-        <v>1.026627243055171</v>
+        <v>1.020098044813019</v>
       </c>
       <c r="E24">
-        <v>1.005923484875529</v>
+        <v>0.9218611340335574</v>
       </c>
       <c r="F24">
-        <v>1.017348340451128</v>
+        <v>0.9267473807955914</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029396822742176</v>
+        <v>1.040584066914039</v>
       </c>
       <c r="J24">
-        <v>1.009075549874698</v>
+        <v>0.9334731753987964</v>
       </c>
       <c r="K24">
-        <v>1.030030341480836</v>
+        <v>1.033781175476006</v>
       </c>
       <c r="L24">
-        <v>1.00940197195844</v>
+        <v>0.9374150416661157</v>
       </c>
       <c r="M24">
-        <v>1.020784807027202</v>
+        <v>0.9421958043527192</v>
       </c>
       <c r="N24">
-        <v>1.006868221414884</v>
+        <v>0.9796058846144563</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C25">
-        <v>1.005721663359451</v>
+        <v>0.9203103189228036</v>
       </c>
       <c r="D25">
-        <v>1.027320389354417</v>
+        <v>1.023910793379409</v>
       </c>
       <c r="E25">
-        <v>1.008573288179382</v>
+        <v>0.9373871159656699</v>
       </c>
       <c r="F25">
-        <v>1.020382949875047</v>
+        <v>0.9446535504371453</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.02954180262168</v>
+        <v>1.04222506773533</v>
       </c>
       <c r="J25">
-        <v>1.011501837092792</v>
+        <v>0.9478531116863816</v>
       </c>
       <c r="K25">
-        <v>1.030399808295262</v>
+        <v>1.036148927492987</v>
       </c>
       <c r="L25">
-        <v>1.011713915783775</v>
+        <v>0.9510419602194478</v>
       </c>
       <c r="M25">
-        <v>1.023484732094045</v>
+        <v>0.9581764466804761</v>
       </c>
       <c r="N25">
-        <v>1.007718391891647</v>
+        <v>0.9848278599673016</v>
       </c>
     </row>
   </sheetData>
